--- a/testFile/case/apiCase.xlsx
+++ b/testFile/case/apiCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Python\pycharmProject\interfaceTest\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA76E3E-AC44-4DFE-B41D-6BEB91AB2189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A6DE2B-EB42-4304-896A-A00CECD3E11D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="1815" windowWidth="19755" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="3105" windowWidth="19755" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sec_get_event_list" sheetId="1" r:id="rId1"/>
@@ -88,47 +88,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user auth null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user auth fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>auth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>('admin', '123')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>('admin', 'admin123456')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user auth null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user auth fail</t>
+    <t>12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin:admin123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,13 +202,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,16 +497,16 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="2" customWidth="1"/>
     <col min="6" max="7" width="9" style="2"/>
     <col min="8" max="8" width="17.625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
@@ -517,13 +520,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -546,13 +549,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -562,19 +565,19 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -584,16 +587,16 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>15</v>
@@ -607,17 +610,17 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>14</v>
@@ -630,18 +633,18 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>14</v>

--- a/testFile/case/apiCase.xlsx
+++ b/testFile/case/apiCase.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Python\pycharmProject\interfaceTest\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A6DE2B-EB42-4304-896A-A00CECD3E11D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078B6D54-2C16-4D16-BEF9-3CFEF0646855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="3105" windowWidth="19755" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="360" windowWidth="20085" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sec_get_event_list" sheetId="1" r:id="rId1"/>
+    <sheet name="sec_add_event" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +130,125 @@
   </si>
   <si>
     <t>admin:admin123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event id 已经存在了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10022</t>
+  </si>
+  <si>
+    <t>event name 已经存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time格式化错误，请检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10023</t>
+  </si>
+  <si>
+    <t>10024</t>
+  </si>
+  <si>
+    <t>添加发布会成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_sec_add_event_all_null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_sec_add_event_eid_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_sec_add_event_name_exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_sec_add_event_data_type_error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_sec_add_event_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user sign null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求超时，请重试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012</t>
+  </si>
+  <si>
+    <t>10013</t>
+  </si>
+  <si>
+    <t>{'eid': 12, 'name': '红米Pro发布会', 'limit': 2000, 'address': "北京水立方", 'start_time': '2017', 'time': self.client_time, 'sign': '123'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_sec_add_event_sign_null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_sec_add_event_sign_timeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_sec_add_event_sign_error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'eid': '', 'name': '', 'limit': '', 'address': "", 'start_time': '', 'time': '', 'sign': ''}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'eid': 11, 'name': '一加4发布会', 'limit': 2000, 'address': "深圳宝体", 'start_time': '2017', 'time': int(self.client_time)-63, 'sign': self.client_sign}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'eid': '', '': '', 'limit': '', 'address': "", 'start_time': '', 'time': self.client_time, 'sign': self.client_sign}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'eid': 2, 'name': '小米2发布会', 'limit': 2000, 'status': 1, 'address': '北京国家会议中心', 'start_time': '2018-08-20 14:00:00',  'time': self.client_time, 'sign': self.client_sign}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'eid': 14, 'name': '红米Pro发布会', 'limit': 2000, 'address': "北京水立方", 'start_time': '2018-05-10 12:00:00', 'time': self.client_time, 'sign': self.client_sign}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'eid': 15, 'name': '一加8手机发布会', 'limit': 2000, 'address': "北京水立方", 'start_time': '2017', 'time': self.client_time, 'sign': self.client_sign}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'eid': 13, 'name': '一加9手机发布会', 'limit': 2000, 'address': "北京水立方", 'start_time': '2017-05-10 12:00:00', 'time': self.client_time, 'sign': self.client_sign}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,4 +775,210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3518FE3E-D93C-40A3-949F-F5A0484C4903}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/testFile/case/apiCase.xlsx
+++ b/testFile/case/apiCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Python\pycharmProject\interfaceTest\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078B6D54-2C16-4D16-BEF9-3CFEF0646855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1F5C23-D3F5-4ECF-BC2C-FB3AD898B8E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="360" windowWidth="20085" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="360" windowWidth="17925" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sec_get_event_list" sheetId="1" r:id="rId1"/>
@@ -248,7 +248,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'eid': 13, 'name': '一加9手机发布会', 'limit': 2000, 'address': "北京水立方", 'start_time': '2017-05-10 12:00:00', 'time': self.client_time, 'sign': self.client_sign}</t>
+    <t>{'eid': 17, 'name': '一加9手机发布会', 'limit': 2000, 'address': "北京水立方", 'start_time': '2017-05-10 12:00:00', 'time': self.client_time, 'sign': self.client_sign}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +782,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
